--- a/biology/Zoologie/Convention_internationale_pour_la_règlementation_de_la_chasse_à_la_baleine/Convention_internationale_pour_la_règlementation_de_la_chasse_à_la_baleine.xlsx
+++ b/biology/Zoologie/Convention_internationale_pour_la_règlementation_de_la_chasse_à_la_baleine/Convention_internationale_pour_la_règlementation_de_la_chasse_à_la_baleine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Convention_internationale_pour_la_r%C3%A8glementation_de_la_chasse_%C3%A0_la_baleine</t>
+          <t>Convention_internationale_pour_la_règlementation_de_la_chasse_à_la_baleine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Convention internationale pour la règlementation de la chasse à la baleine est un accord environnemental international signé par 15 nations à Washington le 2 décembre 1946[1] et entré en vigueur à partir du 10 novembre 1948. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Convention internationale pour la règlementation de la chasse à la baleine est un accord environnemental international signé par 15 nations à Washington le 2 décembre 1946 et entré en vigueur à partir du 10 novembre 1948. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Convention_internationale_pour_la_r%C3%A8glementation_de_la_chasse_%C3%A0_la_baleine</t>
+          <t>Convention_internationale_pour_la_règlementation_de_la_chasse_à_la_baleine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Objectif</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet accord international entend protéger les cétacés en établissant des quotas restrictif pour la chasse à la baleine tout en assurant à celle-ci un développement régulier[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet accord international entend protéger les cétacés en établissant des quotas restrictif pour la chasse à la baleine tout en assurant à celle-ci un développement régulier.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Convention_internationale_pour_la_r%C3%A8glementation_de_la_chasse_%C3%A0_la_baleine</t>
+          <t>Convention_internationale_pour_la_règlementation_de_la_chasse_à_la_baleine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette convention succède à l'International Agreement for the Regulation of Whaling, signé à Londres le Date 8 juin 1937 et ses protocoles signés à Londres le 24 juin 1938 et 26 novembre 1945. Elle réglemente les prises commerciales, scientifiques et aborigènes des 89 pays membres.
 L'objectif de l'agrément était de protéger toute espèce de baleine de la surpêche et d'établir un système international de régulation de la chasse à la baleine afin d'assurer une bonne conservation et un développement des stocks de baleines, afin de sauvegarder pour les générations futures cette importante ressource naturelle.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Convention_internationale_pour_la_r%C3%A8glementation_de_la_chasse_%C3%A0_la_baleine</t>
+          <t>Convention_internationale_pour_la_règlementation_de_la_chasse_à_la_baleine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Moyens d'application</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'instrument principal de la convention est la Commission baleinière internationale établie à sa suite. 
 Elle a opéré de nombreuses révisions de la convention, autorisant notamment des gouvernements à pratiquer des prises à des fins scientifiques.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Convention_internationale_pour_la_r%C3%A8glementation_de_la_chasse_%C3%A0_la_baleine</t>
+          <t>Convention_internationale_pour_la_règlementation_de_la_chasse_à_la_baleine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Signataires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Convention_internationale_pour_la_r%C3%A8glementation_de_la_chasse_%C3%A0_la_baleine</t>
+          <t>Convention_internationale_pour_la_règlementation_de_la_chasse_à_la_baleine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,9 +662,11 @@
           <t>Rétractations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un certain nombre de pays furent signataires un temps : Canada, Égypte, Jamaïque, république de Maurice, Philippines, Seychelles, Venezuela[3] et le Japon jusqu'en 2018.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un certain nombre de pays furent signataires un temps : Canada, Égypte, Jamaïque, république de Maurice, Philippines, Seychelles, Venezuela et le Japon jusqu'en 2018.
 </t>
         </is>
       </c>
